--- a/tmp/export/DD_26022024.xlsx
+++ b/tmp/export/DD_26022024.xlsx
@@ -4,11 +4,14 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="RUN_TIME_2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="RUN_TIME_1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RUN_TIME_5" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RUN_TIME_4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RUN_TIME_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RUN_TIME_2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="RUN_TIME_1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,7 +543,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2024-03-06 23:39:12</t>
+          <t>2024-03-07 10:18:02</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -549,324 +552,6 @@
       <c r="O2" t="inlineStr">
         <is>
           <t>No_changed</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>15</v>
-      </c>
-      <c r="B3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" t="n">
-        <v>19</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" t="n">
-        <v>21</v>
-      </c>
-      <c r="H3" t="n">
-        <v>22</v>
-      </c>
-      <c r="I3" t="n">
-        <v>23</v>
-      </c>
-      <c r="J3" t="n">
-        <v>24</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2024-02-26</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>26</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2024-03-06 23:39:12</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>28</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>29</v>
-      </c>
-      <c r="B4" t="n">
-        <v>30</v>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32</v>
-      </c>
-      <c r="E4" t="n">
-        <v>33</v>
-      </c>
-      <c r="F4" t="n">
-        <v>34</v>
-      </c>
-      <c r="G4" t="n">
-        <v>35</v>
-      </c>
-      <c r="H4" t="n">
-        <v>36</v>
-      </c>
-      <c r="I4" t="n">
-        <v>37</v>
-      </c>
-      <c r="J4" t="n">
-        <v>38</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2024-02-26</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>40</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2024-03-06 23:39:12</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>42</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>43</v>
-      </c>
-      <c r="B5" t="n">
-        <v>44</v>
-      </c>
-      <c r="C5" t="n">
-        <v>45</v>
-      </c>
-      <c r="D5" t="n">
-        <v>46</v>
-      </c>
-      <c r="E5" t="n">
-        <v>47</v>
-      </c>
-      <c r="F5" t="n">
-        <v>48</v>
-      </c>
-      <c r="G5" t="n">
-        <v>49</v>
-      </c>
-      <c r="H5" t="n">
-        <v>50</v>
-      </c>
-      <c r="I5" t="n">
-        <v>51</v>
-      </c>
-      <c r="J5" t="n">
-        <v>52</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2024-02-26</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>54</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2024-03-06 23:39:12</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>56</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>57</v>
-      </c>
-      <c r="B6" t="n">
-        <v>58</v>
-      </c>
-      <c r="C6" t="n">
-        <v>59</v>
-      </c>
-      <c r="D6" t="n">
-        <v>60</v>
-      </c>
-      <c r="E6" t="n">
-        <v>61</v>
-      </c>
-      <c r="F6" t="n">
-        <v>62</v>
-      </c>
-      <c r="G6" t="n">
-        <v>63</v>
-      </c>
-      <c r="H6" t="n">
-        <v>64</v>
-      </c>
-      <c r="I6" t="n">
-        <v>65</v>
-      </c>
-      <c r="J6" t="n">
-        <v>66</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2024-02-26</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>68</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2024-03-06 23:39:12</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>70</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>71</v>
-      </c>
-      <c r="B7" t="n">
-        <v>72</v>
-      </c>
-      <c r="C7" t="n">
-        <v>73</v>
-      </c>
-      <c r="D7" t="n">
-        <v>74</v>
-      </c>
-      <c r="E7" t="n">
-        <v>75</v>
-      </c>
-      <c r="F7" t="n">
-        <v>76</v>
-      </c>
-      <c r="G7" t="n">
-        <v>77</v>
-      </c>
-      <c r="H7" t="n">
-        <v>78</v>
-      </c>
-      <c r="I7" t="n">
-        <v>79</v>
-      </c>
-      <c r="J7" t="n">
-        <v>80</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2024-02-26</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>82</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2024-03-06 23:39:12</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>83</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>84</v>
-      </c>
-      <c r="B8" t="n">
-        <v>85</v>
-      </c>
-      <c r="C8" t="n">
-        <v>86</v>
-      </c>
-      <c r="D8" t="n">
-        <v>87</v>
-      </c>
-      <c r="E8" t="n">
-        <v>88</v>
-      </c>
-      <c r="F8" t="n">
-        <v>89</v>
-      </c>
-      <c r="G8" t="n">
-        <v>90</v>
-      </c>
-      <c r="H8" t="n">
-        <v>91</v>
-      </c>
-      <c r="I8" t="n">
-        <v>92</v>
-      </c>
-      <c r="J8" t="n">
-        <v>93</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2024-02-26</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>95</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2024-03-06 23:39:12</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>96</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Removed</t>
         </is>
       </c>
     </row>
@@ -881,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,7 +692,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2024-03-06 23:39:12</t>
+          <t>2024-03-07 10:18:02</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -1015,323 +700,452 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Inserted</t>
+          <t>No_changed</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>15</v>
-      </c>
-      <c r="B3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" t="n">
-        <v>19</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" t="n">
-        <v>21</v>
-      </c>
-      <c r="H3" t="n">
-        <v>22</v>
-      </c>
-      <c r="I3" t="n">
-        <v>23</v>
-      </c>
-      <c r="J3" t="n">
-        <v>24</v>
-      </c>
-      <c r="K3" t="inlineStr">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ApplicationCode</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>AccountOwner</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AccountName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>AccountType</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>EntitlementName</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>SecondEntitlementName</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ThirdEntitlementName</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AccountStatus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>IsPrivileged</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>AccountDescription</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>CreateDate</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>LastLogin</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>LastUpdatedDate</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>AdditionalAttribute</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>recoreded</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>2024-02-26</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>26</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2024-03-06 23:39:12</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>28</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Inserted</t>
+      <c r="L2" t="n">
+        <v>12</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2024-03-07 10:18:02</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>14</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>No_changed</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>29</v>
-      </c>
-      <c r="B4" t="n">
-        <v>30</v>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32</v>
-      </c>
-      <c r="E4" t="n">
-        <v>33</v>
-      </c>
-      <c r="F4" t="n">
-        <v>34</v>
-      </c>
-      <c r="G4" t="n">
-        <v>35</v>
-      </c>
-      <c r="H4" t="n">
-        <v>36</v>
-      </c>
-      <c r="I4" t="n">
-        <v>37</v>
-      </c>
-      <c r="J4" t="n">
-        <v>38</v>
-      </c>
-      <c r="K4" t="inlineStr">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ApplicationCode</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>AccountOwner</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AccountName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>AccountType</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>EntitlementName</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>SecondEntitlementName</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ThirdEntitlementName</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AccountStatus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>IsPrivileged</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>AccountDescription</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>CreateDate</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>LastLogin</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>LastUpdatedDate</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>AdditionalAttribute</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>recoreded</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>2024-02-26</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>40</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2024-03-06 23:39:12</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>42</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Inserted</t>
+      <c r="L2" t="n">
+        <v>12</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2024-03-07 10:18:02</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>14</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>No_changed</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>43</v>
-      </c>
-      <c r="B5" t="n">
-        <v>44</v>
-      </c>
-      <c r="C5" t="n">
-        <v>45</v>
-      </c>
-      <c r="D5" t="n">
-        <v>46</v>
-      </c>
-      <c r="E5" t="n">
-        <v>47</v>
-      </c>
-      <c r="F5" t="n">
-        <v>48</v>
-      </c>
-      <c r="G5" t="n">
-        <v>49</v>
-      </c>
-      <c r="H5" t="n">
-        <v>50</v>
-      </c>
-      <c r="I5" t="n">
-        <v>51</v>
-      </c>
-      <c r="J5" t="n">
-        <v>52</v>
-      </c>
-      <c r="K5" t="inlineStr">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ApplicationCode</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>AccountOwner</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AccountName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>AccountType</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>EntitlementName</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>SecondEntitlementName</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ThirdEntitlementName</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AccountStatus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>IsPrivileged</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>AccountDescription</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>CreateDate</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>LastLogin</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>LastUpdatedDate</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>AdditionalAttribute</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>recoreded</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>2024-02-26</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>54</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2024-03-06 23:39:12</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>56</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Inserted</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>57</v>
-      </c>
-      <c r="B6" t="n">
-        <v>58</v>
-      </c>
-      <c r="C6" t="n">
-        <v>59</v>
-      </c>
-      <c r="D6" t="n">
-        <v>60</v>
-      </c>
-      <c r="E6" t="n">
-        <v>61</v>
-      </c>
-      <c r="F6" t="n">
-        <v>62</v>
-      </c>
-      <c r="G6" t="n">
-        <v>63</v>
-      </c>
-      <c r="H6" t="n">
-        <v>64</v>
-      </c>
-      <c r="I6" t="n">
-        <v>65</v>
-      </c>
-      <c r="J6" t="n">
-        <v>66</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2024-02-26</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>68</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2024-03-06 23:39:12</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>70</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Inserted</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>71</v>
-      </c>
-      <c r="B7" t="n">
-        <v>72</v>
-      </c>
-      <c r="C7" t="n">
-        <v>73</v>
-      </c>
-      <c r="D7" t="n">
-        <v>74</v>
-      </c>
-      <c r="E7" t="n">
-        <v>75</v>
-      </c>
-      <c r="F7" t="n">
-        <v>76</v>
-      </c>
-      <c r="G7" t="n">
-        <v>77</v>
-      </c>
-      <c r="H7" t="n">
-        <v>78</v>
-      </c>
-      <c r="I7" t="n">
-        <v>79</v>
-      </c>
-      <c r="J7" t="n">
-        <v>80</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2024-02-26</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>82</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2024-03-06 23:39:12</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>83</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Inserted</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>84</v>
-      </c>
-      <c r="B8" t="n">
-        <v>85</v>
-      </c>
-      <c r="C8" t="n">
-        <v>86</v>
-      </c>
-      <c r="D8" t="n">
-        <v>87</v>
-      </c>
-      <c r="E8" t="n">
-        <v>88</v>
-      </c>
-      <c r="F8" t="n">
-        <v>89</v>
-      </c>
-      <c r="G8" t="n">
-        <v>90</v>
-      </c>
-      <c r="H8" t="n">
-        <v>91</v>
-      </c>
-      <c r="I8" t="n">
-        <v>92</v>
-      </c>
-      <c r="J8" t="n">
-        <v>93</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2024-02-26</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>95</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2024-03-06 23:39:12</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>96</v>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="L2" t="n">
+        <v>12</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2024-03-07 10:18:02</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>14</v>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>Inserted</t>
         </is>

--- a/tmp/export/DD_26022024.xlsx
+++ b/tmp/export/DD_26022024.xlsx
@@ -4,14 +4,17 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="RUN_TIME_5" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="RUN_TIME_4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RUN_TIME_3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="RUN_TIME_2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="RUN_TIME_1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="RUN_TIME_8" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RUN_TIME_7" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RUN_TIME_6" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RUN_TIME_5" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="RUN_TIME_4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="RUN_TIME_3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="RUN_TIME_2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="RUN_TIME_1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,13 +24,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <strike val="1"/>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,8 +58,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -417,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,6 +561,112 @@
       <c r="O2" t="inlineStr">
         <is>
           <t>No_changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-07 12:03:07</t>
+        </is>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>2024-03-07 12:03:07</t>
+        </is>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
         </is>
       </c>
     </row>
@@ -566,7 +681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,6 +816,112 @@
       <c r="O2" t="inlineStr">
         <is>
           <t>No_changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>22</v>
+      </c>
+      <c r="I3" t="n">
+        <v>23</v>
+      </c>
+      <c r="J3" t="n">
+        <v>24</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>26</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2024-03-07 12:03:07</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>28</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Inserted</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" t="n">
+        <v>33</v>
+      </c>
+      <c r="F4" t="n">
+        <v>34</v>
+      </c>
+      <c r="G4" t="n">
+        <v>35</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36</v>
+      </c>
+      <c r="I4" t="n">
+        <v>37</v>
+      </c>
+      <c r="J4" t="n">
+        <v>38</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>40</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2024-03-07 12:03:07</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>42</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Inserted</t>
         </is>
       </c>
     </row>
@@ -1147,6 +1368,453 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
+          <t>No_changed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ApplicationCode</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>AccountOwner</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AccountName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>AccountType</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>EntitlementName</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>SecondEntitlementName</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ThirdEntitlementName</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AccountStatus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>IsPrivileged</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>AccountDescription</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>CreateDate</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>LastLogin</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>LastUpdatedDate</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>AdditionalAttribute</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>recoreded</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>12</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2024-03-07 10:18:02</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>14</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>No_changed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ApplicationCode</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>AccountOwner</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AccountName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>AccountType</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>EntitlementName</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>SecondEntitlementName</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ThirdEntitlementName</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AccountStatus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>IsPrivileged</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>AccountDescription</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>CreateDate</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>LastLogin</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>LastUpdatedDate</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>AdditionalAttribute</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>recoreded</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>12</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2024-03-07 10:18:02</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>14</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>No_changed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ApplicationCode</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>AccountOwner</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AccountName</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>AccountType</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>EntitlementName</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>SecondEntitlementName</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ThirdEntitlementName</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>AccountStatus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>IsPrivileged</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>AccountDescription</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>CreateDate</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>LastLogin</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>LastUpdatedDate</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>AdditionalAttribute</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>recoreded</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>12</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2024-03-07 10:18:02</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>14</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>Inserted</t>
         </is>
       </c>
